--- a/data/pca/factorExposure/factorExposure_2018-03-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.008758397447049121</v>
+        <v>-0.01293866432122581</v>
       </c>
       <c r="C2">
-        <v>0.02988921125097794</v>
+        <v>0.02881258239935652</v>
       </c>
       <c r="D2">
-        <v>-0.02386870244930111</v>
+        <v>-0.02612105789943577</v>
       </c>
       <c r="E2">
-        <v>0.003857114707415143</v>
+        <v>0.01964435409800712</v>
       </c>
       <c r="F2">
-        <v>-0.08968713762861492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.009932792198357061</v>
+      </c>
+      <c r="G2">
+        <v>0.0264819171182121</v>
+      </c>
+      <c r="H2">
+        <v>-0.04202382584730274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.07224083330576753</v>
+        <v>-0.05498208935797296</v>
       </c>
       <c r="C3">
-        <v>0.05074987452621511</v>
+        <v>0.0775461956730487</v>
       </c>
       <c r="D3">
-        <v>-0.004849947327769982</v>
+        <v>-0.01079602450803236</v>
       </c>
       <c r="E3">
-        <v>0.01780458034622781</v>
+        <v>0.006902458013758272</v>
       </c>
       <c r="F3">
-        <v>-0.331047183986138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.07234896718064536</v>
+      </c>
+      <c r="G3">
+        <v>0.1320192115481519</v>
+      </c>
+      <c r="H3">
+        <v>-0.09672713592449574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0442131354244838</v>
+        <v>-0.03762806127471433</v>
       </c>
       <c r="C4">
-        <v>0.02226242862371991</v>
+        <v>0.06303175423130029</v>
       </c>
       <c r="D4">
-        <v>-0.02982178906046536</v>
+        <v>-0.02128621846472849</v>
       </c>
       <c r="E4">
-        <v>-0.03917068355275043</v>
+        <v>-0.01661604524326728</v>
       </c>
       <c r="F4">
-        <v>-0.06125818023259627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02320539871173644</v>
+      </c>
+      <c r="G4">
+        <v>0.04919040542595788</v>
+      </c>
+      <c r="H4">
+        <v>-0.0498672126822405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03251920285969627</v>
+        <v>-0.02139347942918313</v>
       </c>
       <c r="C6">
-        <v>0.01942967718892229</v>
+        <v>0.06137060199584883</v>
       </c>
       <c r="D6">
-        <v>-0.03799905199824306</v>
+        <v>-0.01652379357366099</v>
       </c>
       <c r="E6">
-        <v>-0.02596420928308975</v>
+        <v>-0.004932405392197674</v>
       </c>
       <c r="F6">
-        <v>-0.01406289958941975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02370356370363</v>
+      </c>
+      <c r="G6">
+        <v>0.0218364998068635</v>
+      </c>
+      <c r="H6">
+        <v>-0.0513197197752769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04121258162809759</v>
+        <v>-0.008722657031652229</v>
       </c>
       <c r="C7">
-        <v>-0.02458540807672114</v>
+        <v>0.03423787519479193</v>
       </c>
       <c r="D7">
-        <v>-0.02655585850416037</v>
+        <v>-0.01277220285797115</v>
       </c>
       <c r="E7">
-        <v>-0.01647365644828347</v>
+        <v>-0.04398054451545275</v>
       </c>
       <c r="F7">
-        <v>-0.03387678867992723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.006379933568240253</v>
+      </c>
+      <c r="G7">
+        <v>0.01580940130009035</v>
+      </c>
+      <c r="H7">
+        <v>-0.03471590001646471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01470659376760781</v>
+        <v>0.002576233141188832</v>
       </c>
       <c r="C8">
-        <v>0.001750740762099117</v>
+        <v>0.01075372470786929</v>
       </c>
       <c r="D8">
-        <v>-0.04043658135368403</v>
+        <v>-0.002532390550117612</v>
       </c>
       <c r="E8">
-        <v>-0.03016703932426784</v>
+        <v>-0.01033801469580448</v>
       </c>
       <c r="F8">
-        <v>-0.06005097951177568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.005808013950117634</v>
+      </c>
+      <c r="G8">
+        <v>0.04110421916195561</v>
+      </c>
+      <c r="H8">
+        <v>-0.02520612474049549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03187119412616581</v>
+        <v>-0.02190272937443049</v>
       </c>
       <c r="C9">
-        <v>0.01428425784272666</v>
+        <v>0.0487290996269046</v>
       </c>
       <c r="D9">
-        <v>-0.0314258389445002</v>
+        <v>-0.01504759559937176</v>
       </c>
       <c r="E9">
-        <v>-0.01655374400241164</v>
+        <v>-0.006651486238493723</v>
       </c>
       <c r="F9">
-        <v>-0.07944227303913083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.004385914993811874</v>
+      </c>
+      <c r="G9">
+        <v>0.04393383556312732</v>
+      </c>
+      <c r="H9">
+        <v>-0.04905959473691165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03765966177157673</v>
+        <v>-0.1332927692146636</v>
       </c>
       <c r="C10">
-        <v>0.006850610856564112</v>
+        <v>-0.1387070834011334</v>
       </c>
       <c r="D10">
-        <v>0.1446106240102773</v>
+        <v>0.03506707321202485</v>
       </c>
       <c r="E10">
-        <v>0.04297850590160464</v>
+        <v>0.000631017868344796</v>
       </c>
       <c r="F10">
-        <v>-0.05960330059704345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04835967115378205</v>
+      </c>
+      <c r="G10">
+        <v>0.01956902473341382</v>
+      </c>
+      <c r="H10">
+        <v>0.01080263334092912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0270093413765986</v>
+        <v>-0.01576417569821251</v>
       </c>
       <c r="C11">
-        <v>0.02597724649129764</v>
+        <v>0.05092729078858346</v>
       </c>
       <c r="D11">
-        <v>-0.0349929853219826</v>
+        <v>-0.0023552961906154</v>
       </c>
       <c r="E11">
-        <v>-0.02328627842627328</v>
+        <v>0.001628790532272982</v>
       </c>
       <c r="F11">
-        <v>-0.02532875475877322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.005579994272877679</v>
+      </c>
+      <c r="G11">
+        <v>0.01997321736333213</v>
+      </c>
+      <c r="H11">
+        <v>-0.04660148576655032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03841675630271651</v>
+        <v>-0.01936691960367319</v>
       </c>
       <c r="C12">
-        <v>0.02658082294864591</v>
+        <v>0.04911744091199016</v>
       </c>
       <c r="D12">
-        <v>-0.02714669793160123</v>
+        <v>-0.005943469563085698</v>
       </c>
       <c r="E12">
-        <v>-0.03184255792311573</v>
+        <v>-0.01141254921466867</v>
       </c>
       <c r="F12">
-        <v>-0.0004849813361169564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01134683304791499</v>
+      </c>
+      <c r="G12">
+        <v>0.0080375399030064</v>
+      </c>
+      <c r="H12">
+        <v>-0.01766404070517534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.006375941391748193</v>
+        <v>-0.01608266217376451</v>
       </c>
       <c r="C13">
-        <v>0.02126642384667783</v>
+        <v>0.02401058354298883</v>
       </c>
       <c r="D13">
-        <v>-0.008782575463869903</v>
+        <v>-0.02174403916543671</v>
       </c>
       <c r="E13">
-        <v>-0.01117566263556641</v>
+        <v>0.01395601932600283</v>
       </c>
       <c r="F13">
-        <v>-0.07227440754809053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.003021431880508461</v>
+      </c>
+      <c r="G13">
+        <v>0.05351550174062751</v>
+      </c>
+      <c r="H13">
+        <v>-0.06592627806269431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02455136906578186</v>
+        <v>-0.009247778375395428</v>
       </c>
       <c r="C14">
-        <v>0.0006947075453711469</v>
+        <v>0.02156823866657106</v>
       </c>
       <c r="D14">
-        <v>-0.01626564585620189</v>
+        <v>-0.007246351946121867</v>
       </c>
       <c r="E14">
-        <v>-0.01816839430351802</v>
+        <v>-0.01470743385333979</v>
       </c>
       <c r="F14">
-        <v>-0.04632153498950735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.007360865562218387</v>
+      </c>
+      <c r="G14">
+        <v>0.03608523108156685</v>
+      </c>
+      <c r="H14">
+        <v>-0.01202764137996352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02884657477404063</v>
+        <v>-0.01755546210780777</v>
       </c>
       <c r="C16">
-        <v>0.02613288850241597</v>
+        <v>0.04446190731822062</v>
       </c>
       <c r="D16">
-        <v>-0.03785966274889292</v>
+        <v>-0.001306098691961737</v>
       </c>
       <c r="E16">
-        <v>-0.0248307294867535</v>
+        <v>-0.002604006388634852</v>
       </c>
       <c r="F16">
-        <v>-0.02794867579705143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.007031827902650915</v>
+      </c>
+      <c r="G16">
+        <v>0.02010846104613508</v>
+      </c>
+      <c r="H16">
+        <v>-0.0351069960193301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03095238068094917</v>
+        <v>-0.01701548736622268</v>
       </c>
       <c r="C19">
-        <v>0.02066240922399436</v>
+        <v>0.04260043898049529</v>
       </c>
       <c r="D19">
-        <v>-0.04181955146335605</v>
+        <v>-0.01354063542712936</v>
       </c>
       <c r="E19">
-        <v>-0.04083962379817525</v>
+        <v>-0.01058834087190582</v>
       </c>
       <c r="F19">
-        <v>-0.07454721181891238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0008995808057544941</v>
+      </c>
+      <c r="G19">
+        <v>0.05642672696568382</v>
+      </c>
+      <c r="H19">
+        <v>-0.0488639575242218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003213054323673331</v>
+        <v>-0.003995528380098867</v>
       </c>
       <c r="C20">
-        <v>-0.008979282606778098</v>
+        <v>0.020513950970618</v>
       </c>
       <c r="D20">
-        <v>-0.002871283748395595</v>
+        <v>-0.01153617344432399</v>
       </c>
       <c r="E20">
-        <v>-0.01471755830757204</v>
+        <v>-0.00499682350902199</v>
       </c>
       <c r="F20">
-        <v>-0.05186768186702986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01078763971388903</v>
+      </c>
+      <c r="G20">
+        <v>0.04628523093508789</v>
+      </c>
+      <c r="H20">
+        <v>-0.02511978045294907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02224843674255784</v>
+        <v>-0.01049120787484595</v>
       </c>
       <c r="C21">
-        <v>-0.01310974624328728</v>
+        <v>0.01872008298004415</v>
       </c>
       <c r="D21">
-        <v>-0.02973290257713413</v>
+        <v>-0.01339762409902195</v>
       </c>
       <c r="E21">
-        <v>-0.006287527770633441</v>
+        <v>-0.01845396553575202</v>
       </c>
       <c r="F21">
-        <v>-0.02605302482813901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01680123652661791</v>
+      </c>
+      <c r="G21">
+        <v>0.0352393806829609</v>
+      </c>
+      <c r="H21">
+        <v>-0.04655372450930322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02562203760378904</v>
+        <v>-0.01184466449671686</v>
       </c>
       <c r="C24">
-        <v>0.0231550348234773</v>
+        <v>0.04425660775787233</v>
       </c>
       <c r="D24">
-        <v>-0.01886035390516</v>
+        <v>-0.006727066130185242</v>
       </c>
       <c r="E24">
-        <v>-0.02363117827603741</v>
+        <v>-0.0007756016064015973</v>
       </c>
       <c r="F24">
-        <v>-0.03003636057846688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.007255183711459204</v>
+      </c>
+      <c r="G24">
+        <v>0.01449545398716645</v>
+      </c>
+      <c r="H24">
+        <v>-0.04130838917163696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02869794433555087</v>
+        <v>-0.02535226761087814</v>
       </c>
       <c r="C25">
-        <v>0.02165347612585945</v>
+        <v>0.04901689052298078</v>
       </c>
       <c r="D25">
-        <v>-0.02934715087360465</v>
+        <v>-0.01014055721267747</v>
       </c>
       <c r="E25">
-        <v>-0.01978353773970042</v>
+        <v>-0.006148252182442364</v>
       </c>
       <c r="F25">
-        <v>-0.03268511795939595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01348945320466121</v>
+      </c>
+      <c r="G25">
+        <v>0.02018864103154283</v>
+      </c>
+      <c r="H25">
+        <v>-0.0405239230530236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01439494359541978</v>
+        <v>-0.008685591523393883</v>
       </c>
       <c r="C26">
-        <v>0.010163010823741</v>
+        <v>0.006652667480955861</v>
       </c>
       <c r="D26">
-        <v>-0.01754834630090346</v>
+        <v>-0.0222700924359968</v>
       </c>
       <c r="E26">
-        <v>0.001721064008311354</v>
+        <v>-0.002122214566255773</v>
       </c>
       <c r="F26">
-        <v>-0.05522781812394948</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01090248507021273</v>
+      </c>
+      <c r="G26">
+        <v>0.02359417928315732</v>
+      </c>
+      <c r="H26">
+        <v>-0.01601993132217558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02922511698507574</v>
+        <v>-0.01040307501599704</v>
       </c>
       <c r="C27">
-        <v>0.0174252216521989</v>
+        <v>0.01075900330305064</v>
       </c>
       <c r="D27">
-        <v>0.001119031472117862</v>
+        <v>0.001420660077629642</v>
       </c>
       <c r="E27">
-        <v>-0.03292653901193145</v>
+        <v>-0.006817756908180201</v>
       </c>
       <c r="F27">
-        <v>-0.01054299950658164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.002009777513520088</v>
+      </c>
+      <c r="G27">
+        <v>0.01022689717353067</v>
+      </c>
+      <c r="H27">
+        <v>0.008318312989540892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07240109289207734</v>
+        <v>-0.1862494934030044</v>
       </c>
       <c r="C28">
-        <v>0.01729354179321275</v>
+        <v>-0.1842443514024433</v>
       </c>
       <c r="D28">
-        <v>0.2129562045143073</v>
+        <v>0.03384590853259263</v>
       </c>
       <c r="E28">
-        <v>0.08289376524555797</v>
+        <v>-0.01254892575968708</v>
       </c>
       <c r="F28">
-        <v>-0.05725807951186725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04704289250605485</v>
+      </c>
+      <c r="G28">
+        <v>0.008160769123107359</v>
+      </c>
+      <c r="H28">
+        <v>0.01413781118529218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02556375508958111</v>
+        <v>-0.01421941396836078</v>
       </c>
       <c r="C29">
-        <v>0.001830600852984584</v>
+        <v>0.01942916560199849</v>
       </c>
       <c r="D29">
-        <v>-0.01928861071725967</v>
+        <v>-0.00593651543564925</v>
       </c>
       <c r="E29">
-        <v>-0.02045212703639247</v>
+        <v>-0.01419477762137366</v>
       </c>
       <c r="F29">
-        <v>-0.0426458465715921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.008928435275008509</v>
+      </c>
+      <c r="G29">
+        <v>0.03555599915678611</v>
+      </c>
+      <c r="H29">
+        <v>-0.00505842682831924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0354954998858105</v>
+        <v>-0.02747054278004669</v>
       </c>
       <c r="C30">
-        <v>0.07561770792842304</v>
+        <v>0.09108791030015345</v>
       </c>
       <c r="D30">
-        <v>-0.05723425787080218</v>
+        <v>-0.02854114539420223</v>
       </c>
       <c r="E30">
-        <v>-0.03181842211473451</v>
+        <v>0.03253773273867802</v>
       </c>
       <c r="F30">
-        <v>-0.0860721376598427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0119749285152326</v>
+      </c>
+      <c r="G30">
+        <v>0.06207058610111213</v>
+      </c>
+      <c r="H30">
+        <v>-0.06989522112837929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04649443362373819</v>
+        <v>-0.04128230580425785</v>
       </c>
       <c r="C31">
-        <v>0.0392191066387737</v>
+        <v>0.03087543144562202</v>
       </c>
       <c r="D31">
-        <v>-0.01498656681703365</v>
+        <v>-0.0006664135870802041</v>
       </c>
       <c r="E31">
-        <v>-0.02526603781305362</v>
+        <v>-0.0007354993453953702</v>
       </c>
       <c r="F31">
-        <v>-0.03150951166800234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.00765531896937008</v>
+      </c>
+      <c r="G31">
+        <v>0.01739774026829589</v>
+      </c>
+      <c r="H31">
+        <v>-0.002249672247718919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02451175686224106</v>
+        <v>-0.002076094549419615</v>
       </c>
       <c r="C32">
-        <v>-0.01206876063972514</v>
+        <v>0.01493196497255328</v>
       </c>
       <c r="D32">
-        <v>-0.05184898121291057</v>
+        <v>0.007617606474038882</v>
       </c>
       <c r="E32">
-        <v>-0.04291560811841722</v>
+        <v>-0.03030368123545471</v>
       </c>
       <c r="F32">
-        <v>-0.04103167870317524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01491991476690201</v>
+      </c>
+      <c r="G32">
+        <v>0.05328257844919259</v>
+      </c>
+      <c r="H32">
+        <v>-0.04805331913613622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02746508735446667</v>
+        <v>-0.01779509136431853</v>
       </c>
       <c r="C33">
-        <v>0.04716684896365738</v>
+        <v>0.04791575044073308</v>
       </c>
       <c r="D33">
-        <v>-0.04701980471597363</v>
+        <v>-0.01398840313659823</v>
       </c>
       <c r="E33">
-        <v>-0.005484865291150227</v>
+        <v>0.01890419620634135</v>
       </c>
       <c r="F33">
-        <v>-0.0607818239595407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02130653486904094</v>
+      </c>
+      <c r="G33">
+        <v>0.03294606667907327</v>
+      </c>
+      <c r="H33">
+        <v>-0.04410028697137612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0350767726021289</v>
+        <v>-0.02506121649030675</v>
       </c>
       <c r="C34">
-        <v>0.02041435695516428</v>
+        <v>0.05264854760414121</v>
       </c>
       <c r="D34">
-        <v>-0.03971533987509695</v>
+        <v>0.006008247653105896</v>
       </c>
       <c r="E34">
-        <v>-0.03488802476676236</v>
+        <v>-0.01378754965469731</v>
       </c>
       <c r="F34">
-        <v>-0.02629769925945204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01631348708871366</v>
+      </c>
+      <c r="G34">
+        <v>0.01323294302433246</v>
+      </c>
+      <c r="H34">
+        <v>-0.03468594990868541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01928761375677126</v>
+        <v>-0.01481431980812151</v>
       </c>
       <c r="C36">
-        <v>0.002059447835587946</v>
+        <v>0.006531479466620613</v>
       </c>
       <c r="D36">
-        <v>-0.008865703270814646</v>
+        <v>-0.008989749722725092</v>
       </c>
       <c r="E36">
-        <v>-0.01302776869256589</v>
+        <v>-0.008774583372594617</v>
       </c>
       <c r="F36">
-        <v>-0.0300033477256555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.007137562089566658</v>
+      </c>
+      <c r="G36">
+        <v>0.01626641328089358</v>
+      </c>
+      <c r="H36">
+        <v>-0.01373551037536939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.007034896133832199</v>
+        <v>-0.02362170149128142</v>
       </c>
       <c r="C38">
-        <v>0.005038660705892722</v>
+        <v>0.01920387878898239</v>
       </c>
       <c r="D38">
-        <v>-0.001160164178003586</v>
+        <v>0.00970892999041453</v>
       </c>
       <c r="E38">
-        <v>0.02009523075078691</v>
+        <v>-0.0009361141630254489</v>
       </c>
       <c r="F38">
-        <v>-0.04584465047672824</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.001962004897429504</v>
+      </c>
+      <c r="G38">
+        <v>0.02140699912558809</v>
+      </c>
+      <c r="H38">
+        <v>-0.03256410133684365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02580264696316375</v>
+        <v>-0.0055553192183505</v>
       </c>
       <c r="C39">
-        <v>0.02495085940344315</v>
+        <v>0.08799513665324706</v>
       </c>
       <c r="D39">
-        <v>-0.05702518700743103</v>
+        <v>-0.01513460658554767</v>
       </c>
       <c r="E39">
-        <v>-0.02645617146587671</v>
+        <v>0.006688030526005</v>
       </c>
       <c r="F39">
-        <v>-0.04604576945801173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.007760505036715658</v>
+      </c>
+      <c r="G39">
+        <v>0.03009241763601861</v>
+      </c>
+      <c r="H39">
+        <v>-0.07594525953453143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01065705840148969</v>
+        <v>-0.02184502333773606</v>
       </c>
       <c r="C40">
-        <v>0.05096353320714707</v>
+        <v>0.03264304996586916</v>
       </c>
       <c r="D40">
-        <v>-0.01808011354310817</v>
+        <v>-0.009663914381480204</v>
       </c>
       <c r="E40">
-        <v>-0.03326422753406253</v>
+        <v>0.02438802442840124</v>
       </c>
       <c r="F40">
-        <v>-0.03690556445897382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02373437758834928</v>
+      </c>
+      <c r="G40">
+        <v>0.02317912343058432</v>
+      </c>
+      <c r="H40">
+        <v>-0.05278814416649822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00799248850146113</v>
+        <v>-0.01248381847807704</v>
       </c>
       <c r="C41">
-        <v>-0.0003351809739974928</v>
+        <v>-0.007653633317100952</v>
       </c>
       <c r="D41">
-        <v>-0.005823980872246223</v>
+        <v>-0.00112972473768137</v>
       </c>
       <c r="E41">
-        <v>0.01178350453036987</v>
+        <v>-0.004945368894226346</v>
       </c>
       <c r="F41">
-        <v>-0.005415511493668137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007820283952049267</v>
+      </c>
+      <c r="G41">
+        <v>-0.003381901634102496</v>
+      </c>
+      <c r="H41">
+        <v>0.003974822771125518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.1981104626271106</v>
+        <v>-0.0890306267824052</v>
       </c>
       <c r="C42">
-        <v>0.2450038323643508</v>
+        <v>0.1958706799501835</v>
       </c>
       <c r="D42">
-        <v>-0.2597025891259778</v>
+        <v>-0.1362150155890096</v>
       </c>
       <c r="E42">
-        <v>0.8547686048927052</v>
+        <v>0.2009027345211306</v>
       </c>
       <c r="F42">
-        <v>0.2448865285493227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.6805343232671928</v>
+      </c>
+      <c r="G42">
+        <v>-0.6369455945373602</v>
+      </c>
+      <c r="H42">
+        <v>-0.08795819545739718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006795331579940912</v>
+        <v>-0.0133635113194524</v>
       </c>
       <c r="C43">
-        <v>0.005327326582088906</v>
+        <v>-0.007020356973344324</v>
       </c>
       <c r="D43">
-        <v>-0.01001658537201925</v>
+        <v>-0.001962319587571202</v>
       </c>
       <c r="E43">
-        <v>0.001369392205500464</v>
+        <v>-0.0002553017312180388</v>
       </c>
       <c r="F43">
-        <v>-0.02478927551846027</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.007299778494632723</v>
+      </c>
+      <c r="G43">
+        <v>-0.0008270695425916113</v>
+      </c>
+      <c r="H43">
+        <v>-0.006023271974831951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02457237465646498</v>
+        <v>-0.008292584030087896</v>
       </c>
       <c r="C44">
-        <v>-0.001986629932415399</v>
+        <v>0.03949419153409494</v>
       </c>
       <c r="D44">
-        <v>-0.02954150474072206</v>
+        <v>-0.006374459548135129</v>
       </c>
       <c r="E44">
-        <v>0.001709027384180461</v>
+        <v>-0.01494906075765775</v>
       </c>
       <c r="F44">
-        <v>-0.08872655692976593</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02183109781270818</v>
+      </c>
+      <c r="G44">
+        <v>0.03012025411238036</v>
+      </c>
+      <c r="H44">
+        <v>-0.0563211798707075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01939439162947516</v>
+        <v>-0.006220067990274549</v>
       </c>
       <c r="C46">
-        <v>0.01228930744576881</v>
+        <v>0.01416665898784009</v>
       </c>
       <c r="D46">
-        <v>-0.05055921055309009</v>
+        <v>-0.010752884988578</v>
       </c>
       <c r="E46">
-        <v>-0.02537179044709197</v>
+        <v>-0.002148817546084261</v>
       </c>
       <c r="F46">
-        <v>-0.05870572729515612</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01299244231009179</v>
+      </c>
+      <c r="G46">
+        <v>0.03359424336040435</v>
+      </c>
+      <c r="H46">
+        <v>-0.008555153805220841</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07376097339386749</v>
+        <v>-0.05632522527428209</v>
       </c>
       <c r="C47">
-        <v>0.05834496135046376</v>
+        <v>0.06675881202807754</v>
       </c>
       <c r="D47">
-        <v>-0.006401450302224826</v>
+        <v>0.006145627254998558</v>
       </c>
       <c r="E47">
-        <v>-0.03627533411158884</v>
+        <v>-0.007595820646007533</v>
       </c>
       <c r="F47">
-        <v>-0.003956147470967745</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.003272886969851099</v>
+      </c>
+      <c r="G47">
+        <v>0.004295132573819173</v>
+      </c>
+      <c r="H47">
+        <v>0.03425272635698515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0173023143216912</v>
+        <v>-0.01401204652366553</v>
       </c>
       <c r="C48">
-        <v>0.01216483688256694</v>
+        <v>0.01636583438275511</v>
       </c>
       <c r="D48">
-        <v>-0.01650886701198093</v>
+        <v>-0.0004770754114485851</v>
       </c>
       <c r="E48">
-        <v>-0.01314162919899846</v>
+        <v>-0.001871990791506007</v>
       </c>
       <c r="F48">
-        <v>-0.03474699891955428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.004140392331034267</v>
+      </c>
+      <c r="G48">
+        <v>0.01850122366182027</v>
+      </c>
+      <c r="H48">
+        <v>-0.01802888139655062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08013062654333737</v>
+        <v>-0.06137469539253641</v>
       </c>
       <c r="C50">
-        <v>0.04150857452509508</v>
+        <v>0.0626340480330539</v>
       </c>
       <c r="D50">
-        <v>-0.03013907562531405</v>
+        <v>0.005156297784062921</v>
       </c>
       <c r="E50">
-        <v>-0.02301969633611595</v>
+        <v>-0.01956363494139051</v>
       </c>
       <c r="F50">
-        <v>-0.01944343129310322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.004829170834984598</v>
+      </c>
+      <c r="G50">
+        <v>0.008972621376219523</v>
+      </c>
+      <c r="H50">
+        <v>0.01810790388371277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02266779368765445</v>
+        <v>-0.01259720690451195</v>
       </c>
       <c r="C51">
-        <v>0.008774948127360818</v>
+        <v>0.01529746308945025</v>
       </c>
       <c r="D51">
-        <v>0.00316964754916181</v>
+        <v>-0.005973595353222348</v>
       </c>
       <c r="E51">
-        <v>-0.01293733554596557</v>
+        <v>-0.008476297777636308</v>
       </c>
       <c r="F51">
-        <v>-0.08356144614439788</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.009766701596658864</v>
+      </c>
+      <c r="G51">
+        <v>0.03369507391507607</v>
+      </c>
+      <c r="H51">
+        <v>-0.04246709831989783</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08059412021613836</v>
+        <v>-0.07347557641371541</v>
       </c>
       <c r="C53">
-        <v>0.06199211648659821</v>
+        <v>0.1035739648094078</v>
       </c>
       <c r="D53">
-        <v>-0.03594581663469446</v>
+        <v>0.004584153647988225</v>
       </c>
       <c r="E53">
-        <v>-0.03887273462797577</v>
+        <v>-0.01079983801297149</v>
       </c>
       <c r="F53">
-        <v>0.03270242123178129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02362037050184859</v>
+      </c>
+      <c r="G53">
+        <v>-0.01422691824924377</v>
+      </c>
+      <c r="H53">
+        <v>0.03466855007601902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02579859774125706</v>
+        <v>-0.02330188487129997</v>
       </c>
       <c r="C54">
-        <v>0.003928511562122397</v>
+        <v>-0.0001200052467202355</v>
       </c>
       <c r="D54">
-        <v>0.005706288862476444</v>
+        <v>0.006969874244839861</v>
       </c>
       <c r="E54">
-        <v>-0.02218454091517745</v>
+        <v>-0.008195256169473997</v>
       </c>
       <c r="F54">
-        <v>-0.02899233913113013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01457479677246168</v>
+      </c>
+      <c r="G54">
+        <v>0.0360907247688678</v>
+      </c>
+      <c r="H54">
+        <v>-0.0005909394594458253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08063375317474812</v>
+        <v>-0.054064455711249</v>
       </c>
       <c r="C55">
-        <v>0.0573135726542436</v>
+        <v>0.09323084505771054</v>
       </c>
       <c r="D55">
-        <v>-0.04037788403837943</v>
+        <v>0.00279150367300988</v>
       </c>
       <c r="E55">
-        <v>-0.02931931843678868</v>
+        <v>-0.01176273170574623</v>
       </c>
       <c r="F55">
-        <v>0.03451858451657579</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.006023838201672224</v>
+      </c>
+      <c r="G55">
+        <v>-0.002875322130719218</v>
+      </c>
+      <c r="H55">
+        <v>0.03986584231271141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1161136660563514</v>
+        <v>-0.09999853822250811</v>
       </c>
       <c r="C56">
-        <v>0.09475451745505337</v>
+        <v>0.1327758520091224</v>
       </c>
       <c r="D56">
-        <v>-0.01778946108106116</v>
+        <v>0.01226864536739984</v>
       </c>
       <c r="E56">
-        <v>-0.07182383981578157</v>
+        <v>-0.01156135143469574</v>
       </c>
       <c r="F56">
-        <v>0.06230532962445352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.04884026916860083</v>
+      </c>
+      <c r="G56">
+        <v>-0.03182551990197114</v>
+      </c>
+      <c r="H56">
+        <v>0.07175182331740658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03303863990748407</v>
+        <v>-0.02384670369293722</v>
       </c>
       <c r="C57">
-        <v>0.0321833702403401</v>
+        <v>0.02984804393190227</v>
       </c>
       <c r="D57">
-        <v>-0.01945637269932596</v>
+        <v>-0.02396691560027603</v>
       </c>
       <c r="E57">
-        <v>0.02743515804436308</v>
+        <v>0.007001023508341048</v>
       </c>
       <c r="F57">
-        <v>-0.05412793698069099</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03294115668033101</v>
+      </c>
+      <c r="G57">
+        <v>0.05297894351932502</v>
+      </c>
+      <c r="H57">
+        <v>-0.0528836642107721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1231654192574483</v>
+        <v>-0.07760176152207736</v>
       </c>
       <c r="C58">
-        <v>0.2342924938317188</v>
+        <v>0.1813172052337345</v>
       </c>
       <c r="D58">
-        <v>-0.2258696802096062</v>
+        <v>-0.01546142502797023</v>
       </c>
       <c r="E58">
-        <v>-0.007631353832043283</v>
+        <v>0.27740800569693</v>
       </c>
       <c r="F58">
-        <v>-0.546651812680543</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.5213489931953065</v>
+      </c>
+      <c r="G58">
+        <v>0.6785222516353512</v>
+      </c>
+      <c r="H58">
+        <v>0.243834847053216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0505514120266422</v>
+        <v>-0.2035638660971473</v>
       </c>
       <c r="C59">
-        <v>0.03620322180459587</v>
+        <v>-0.1696573867560756</v>
       </c>
       <c r="D59">
-        <v>0.1853199949136973</v>
+        <v>0.04106628071163407</v>
       </c>
       <c r="E59">
-        <v>0.03925472425129834</v>
+        <v>0.00982105323974531</v>
       </c>
       <c r="F59">
-        <v>-0.0854877918538843</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.009788445839218476</v>
+      </c>
+      <c r="G59">
+        <v>0.01911312715253787</v>
+      </c>
+      <c r="H59">
+        <v>-0.0186172635425522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1141340708812918</v>
+        <v>-0.2197901471996285</v>
       </c>
       <c r="C60">
-        <v>0.1302065405974313</v>
+        <v>0.07159533172533951</v>
       </c>
       <c r="D60">
-        <v>0.006410805515790188</v>
+        <v>0.007263092053285724</v>
       </c>
       <c r="E60">
-        <v>0.01001847662285603</v>
+        <v>0.06207254180117457</v>
       </c>
       <c r="F60">
-        <v>-0.1724426122830131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1066049158795739</v>
+      </c>
+      <c r="G60">
+        <v>0.03960832695429437</v>
+      </c>
+      <c r="H60">
+        <v>-0.3911373349800061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.021714255482291</v>
+        <v>-0.01428206691336303</v>
       </c>
       <c r="C61">
-        <v>0.01431518341143389</v>
+        <v>0.06127429744838346</v>
       </c>
       <c r="D61">
-        <v>-0.04199089354926541</v>
+        <v>-0.005781710633844143</v>
       </c>
       <c r="E61">
-        <v>-0.008352515634779923</v>
+        <v>-0.00376465194503923</v>
       </c>
       <c r="F61">
-        <v>-0.02036521804064519</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.009866179730358318</v>
+      </c>
+      <c r="G61">
+        <v>0.02305763474025845</v>
+      </c>
+      <c r="H61">
+        <v>-0.05678774365137022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01478155986885246</v>
+        <v>-0.007634272611961243</v>
       </c>
       <c r="C63">
-        <v>0.004684861735102992</v>
+        <v>0.02273563080223152</v>
       </c>
       <c r="D63">
-        <v>-0.01902725915287501</v>
+        <v>-0.008024601377140221</v>
       </c>
       <c r="E63">
-        <v>-0.0005959429539692671</v>
+        <v>-0.01000020065460884</v>
       </c>
       <c r="F63">
-        <v>-0.007727790580538797</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.001304655621066835</v>
+      </c>
+      <c r="G63">
+        <v>0.01442009553403301</v>
+      </c>
+      <c r="H63">
+        <v>-0.01223450849328519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03751528079841899</v>
+        <v>-0.03573794488325301</v>
       </c>
       <c r="C64">
-        <v>0.009086081014867511</v>
+        <v>0.04355010708918581</v>
       </c>
       <c r="D64">
-        <v>-0.02363897053555191</v>
+        <v>-0.00340139095964293</v>
       </c>
       <c r="E64">
-        <v>-0.02344634720415535</v>
+        <v>-0.01581836572920802</v>
       </c>
       <c r="F64">
-        <v>-0.01230902533280537</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.007360085076240569</v>
+      </c>
+      <c r="G64">
+        <v>-0.009135164768132309</v>
+      </c>
+      <c r="H64">
+        <v>-0.04108126854680495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03637216286548686</v>
+        <v>-0.03914886169758768</v>
       </c>
       <c r="C65">
-        <v>0.02168868570608697</v>
+        <v>0.08016470656919444</v>
       </c>
       <c r="D65">
-        <v>-0.03815258298394845</v>
+        <v>-0.01728220653186813</v>
       </c>
       <c r="E65">
-        <v>-0.02875491454452406</v>
+        <v>-0.006555068783175752</v>
       </c>
       <c r="F65">
-        <v>-0.007264627594711566</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04182619141258008</v>
+      </c>
+      <c r="G65">
+        <v>0.01642170897650221</v>
+      </c>
+      <c r="H65">
+        <v>-0.06442306519684932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02837623200980038</v>
+        <v>-0.01404120491340039</v>
       </c>
       <c r="C66">
-        <v>0.03519355167911377</v>
+        <v>0.11581562945783</v>
       </c>
       <c r="D66">
-        <v>-0.06100669986939052</v>
+        <v>-0.01408572486032214</v>
       </c>
       <c r="E66">
-        <v>-0.04984810888309599</v>
+        <v>0.009027153287772727</v>
       </c>
       <c r="F66">
-        <v>-0.03079302557189069</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03283934702464471</v>
+      </c>
+      <c r="G66">
+        <v>0.036939119303841</v>
+      </c>
+      <c r="H66">
+        <v>-0.08430718095357981</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0156762880462884</v>
+        <v>-0.04668183864264199</v>
       </c>
       <c r="C67">
-        <v>0.01671805593500102</v>
+        <v>0.0266884513512241</v>
       </c>
       <c r="D67">
-        <v>0.009464754846841983</v>
+        <v>0.00968751310855168</v>
       </c>
       <c r="E67">
-        <v>0.01193579894108919</v>
+        <v>0.001372110452762657</v>
       </c>
       <c r="F67">
-        <v>-0.02709355185000039</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01261426414433744</v>
+      </c>
+      <c r="G67">
+        <v>0.01665275384097875</v>
+      </c>
+      <c r="H67">
+        <v>-0.03020678011166865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0664095100035976</v>
+        <v>-0.2036327438313585</v>
       </c>
       <c r="C68">
-        <v>0.03539105340622827</v>
+        <v>-0.2076208028272215</v>
       </c>
       <c r="D68">
-        <v>0.2095433970182609</v>
+        <v>0.0244580720588448</v>
       </c>
       <c r="E68">
-        <v>0.05115486870670676</v>
+        <v>0.00701689384767541</v>
       </c>
       <c r="F68">
-        <v>-0.07966843198127729</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05926388411490771</v>
+      </c>
+      <c r="G68">
+        <v>0.01405377794900026</v>
+      </c>
+      <c r="H68">
+        <v>0.03885489029594368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05421092066671037</v>
+        <v>-0.05639009283561102</v>
       </c>
       <c r="C69">
-        <v>0.04512753641016889</v>
+        <v>0.06024648200497234</v>
       </c>
       <c r="D69">
-        <v>-0.01165371171158712</v>
+        <v>0.01087219629332114</v>
       </c>
       <c r="E69">
-        <v>-0.03694971517848336</v>
+        <v>-0.00597318215753566</v>
       </c>
       <c r="F69">
-        <v>-0.01166101453152265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02352416832501048</v>
+      </c>
+      <c r="G69">
+        <v>0.003002965247593805</v>
+      </c>
+      <c r="H69">
+        <v>-0.003657671943305898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0704644413243765</v>
+        <v>-0.1803277617458133</v>
       </c>
       <c r="C71">
-        <v>0.0437764759968258</v>
+        <v>-0.1635936675723591</v>
       </c>
       <c r="D71">
-        <v>0.2112953127313664</v>
+        <v>0.02626535162246902</v>
       </c>
       <c r="E71">
-        <v>0.08934867214065222</v>
+        <v>0.01133061688359859</v>
       </c>
       <c r="F71">
-        <v>-0.08254668044093363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.07061068763114489</v>
+      </c>
+      <c r="G71">
+        <v>0.01303931884626818</v>
+      </c>
+      <c r="H71">
+        <v>0.01902972653900677</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09175255553789489</v>
+        <v>-0.05742693043194157</v>
       </c>
       <c r="C72">
-        <v>0.09623497314963803</v>
+        <v>0.1121854685760755</v>
       </c>
       <c r="D72">
-        <v>-0.07074502208601015</v>
+        <v>0.007871515545480393</v>
       </c>
       <c r="E72">
-        <v>-0.08326272565346557</v>
+        <v>0.01710562250522474</v>
       </c>
       <c r="F72">
-        <v>-0.07687039219734906</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.05125061220533673</v>
+      </c>
+      <c r="G72">
+        <v>0.04851631805850381</v>
+      </c>
+      <c r="H72">
+        <v>-0.08882433085698589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1372700650513048</v>
+        <v>-0.285688889107643</v>
       </c>
       <c r="C73">
-        <v>0.2012432339133988</v>
+        <v>0.1499388286510805</v>
       </c>
       <c r="D73">
-        <v>0.01244811506622375</v>
+        <v>0.0001333904718947057</v>
       </c>
       <c r="E73">
-        <v>0.05825280804343803</v>
+        <v>0.1064645377386189</v>
       </c>
       <c r="F73">
-        <v>-0.2075542325058434</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1228535633610694</v>
+      </c>
+      <c r="G73">
+        <v>0.04455337510045088</v>
+      </c>
+      <c r="H73">
+        <v>-0.4883893430893884</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1041926230603436</v>
+        <v>-0.09584004126788662</v>
       </c>
       <c r="C74">
-        <v>0.08442106349019042</v>
+        <v>0.1321781221010198</v>
       </c>
       <c r="D74">
-        <v>-0.01925354808577459</v>
+        <v>0.01163251279233902</v>
       </c>
       <c r="E74">
-        <v>-0.04676784707688722</v>
+        <v>-0.01379165177588717</v>
       </c>
       <c r="F74">
-        <v>0.07734346387034093</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03416193034236673</v>
+      </c>
+      <c r="G74">
+        <v>-0.02125631901470293</v>
+      </c>
+      <c r="H74">
+        <v>0.05143760317810748</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.184461554256855</v>
+        <v>-0.204582714586739</v>
       </c>
       <c r="C75">
-        <v>0.1692891994877157</v>
+        <v>0.226513078010835</v>
       </c>
       <c r="D75">
-        <v>-0.007762943159364375</v>
+        <v>0.030333433918585</v>
       </c>
       <c r="E75">
-        <v>-0.1583162635872171</v>
+        <v>-0.01002740349625918</v>
       </c>
       <c r="F75">
-        <v>0.1272681130067176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1012623515976554</v>
+      </c>
+      <c r="G75">
+        <v>-0.04842854042007497</v>
+      </c>
+      <c r="H75">
+        <v>0.163123982903576</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2361312269566458</v>
+        <v>-0.1568978686815699</v>
       </c>
       <c r="C76">
-        <v>0.161910989425393</v>
+        <v>0.2053246769233614</v>
       </c>
       <c r="D76">
-        <v>-0.0216754369818954</v>
+        <v>0.0255036343539456</v>
       </c>
       <c r="E76">
-        <v>-0.1645759247533435</v>
+        <v>-0.04884837341848829</v>
       </c>
       <c r="F76">
-        <v>0.2016705450965075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08006764797753033</v>
+      </c>
+      <c r="G76">
+        <v>-0.04702811458196483</v>
+      </c>
+      <c r="H76">
+        <v>0.1427458515210046</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08526830814348464</v>
+        <v>-0.04578221227347207</v>
       </c>
       <c r="C77">
-        <v>0.08484105641837233</v>
+        <v>0.08720682594530876</v>
       </c>
       <c r="D77">
-        <v>-0.07748082223164197</v>
+        <v>-0.0152514190687484</v>
       </c>
       <c r="E77">
-        <v>0.02271267337327058</v>
+        <v>0.0168552858336932</v>
       </c>
       <c r="F77">
-        <v>-0.1204857436053859</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.05053083259907081</v>
+      </c>
+      <c r="G77">
+        <v>0.05494814050635898</v>
+      </c>
+      <c r="H77">
+        <v>-0.01153330985654336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05795554770399074</v>
+        <v>-0.02392486827637821</v>
       </c>
       <c r="C78">
-        <v>0.04029925919676222</v>
+        <v>0.08049928895217748</v>
       </c>
       <c r="D78">
-        <v>-0.1085902822915589</v>
+        <v>-0.008485528699441134</v>
       </c>
       <c r="E78">
-        <v>-0.04229890802197045</v>
+        <v>-0.004890102284904916</v>
       </c>
       <c r="F78">
-        <v>-0.0779204548968854</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.002324754603087362</v>
+      </c>
+      <c r="G78">
+        <v>0.05653819456538191</v>
+      </c>
+      <c r="H78">
+        <v>-0.08736798414406288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6807632498321868</v>
+        <v>-0.1002382000614893</v>
       </c>
       <c r="C80">
-        <v>-0.7083337369187303</v>
+        <v>0.09763030194724584</v>
       </c>
       <c r="D80">
-        <v>-0.07750043584056932</v>
+        <v>-0.004969959741512882</v>
       </c>
       <c r="E80">
-        <v>0.04676738976150292</v>
+        <v>-0.9164625635065768</v>
       </c>
       <c r="F80">
-        <v>-0.04935622013049338</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.3008216994890848</v>
+      </c>
+      <c r="G80">
+        <v>0.08230156947880156</v>
+      </c>
+      <c r="H80">
+        <v>-0.07068272296681823</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1470461647880853</v>
+        <v>-0.1298644096740511</v>
       </c>
       <c r="C81">
-        <v>0.117011087239416</v>
+        <v>0.1412859121778325</v>
       </c>
       <c r="D81">
-        <v>-0.002817592900669317</v>
+        <v>0.01824017267639743</v>
       </c>
       <c r="E81">
-        <v>-0.1161498481128435</v>
+        <v>-0.0178757302525926</v>
       </c>
       <c r="F81">
-        <v>0.108728652857728</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.05323288866604818</v>
+      </c>
+      <c r="G81">
+        <v>-0.03037261857503521</v>
+      </c>
+      <c r="H81">
+        <v>0.09949653506898896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02597326057912206</v>
+        <v>-0.02248729354830056</v>
       </c>
       <c r="C83">
-        <v>0.02725847260177701</v>
+        <v>0.02517225348730616</v>
       </c>
       <c r="D83">
-        <v>-0.02428640719441883</v>
+        <v>-0.004502187433246659</v>
       </c>
       <c r="E83">
-        <v>0.01410018421426474</v>
+        <v>0.005338565576966241</v>
       </c>
       <c r="F83">
-        <v>-0.05515077408878805</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02027601101362045</v>
+      </c>
+      <c r="G83">
+        <v>0.03605404503249652</v>
+      </c>
+      <c r="H83">
+        <v>-0.04371528260996184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1994067850441671</v>
+        <v>-0.1854407130572666</v>
       </c>
       <c r="C85">
-        <v>0.1698917816898034</v>
+        <v>0.2197962799958506</v>
       </c>
       <c r="D85">
-        <v>-0.02044125913461221</v>
+        <v>0.01570526415315758</v>
       </c>
       <c r="E85">
-        <v>-0.1465539167722651</v>
+        <v>-0.007582891619872302</v>
       </c>
       <c r="F85">
-        <v>0.1613375389552587</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1102231211071807</v>
+      </c>
+      <c r="G85">
+        <v>-0.07807429818304676</v>
+      </c>
+      <c r="H85">
+        <v>0.1056917717852184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007904316555013889</v>
+        <v>-0.009759686271329282</v>
       </c>
       <c r="C86">
-        <v>-0.001545228939227814</v>
+        <v>0.03618364162304349</v>
       </c>
       <c r="D86">
-        <v>-0.07883029768353199</v>
+        <v>-0.009232726551356509</v>
       </c>
       <c r="E86">
-        <v>-0.0042700683586493</v>
+        <v>-0.008091108216587565</v>
       </c>
       <c r="F86">
-        <v>-0.04724152003705414</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02869418327813688</v>
+      </c>
+      <c r="G86">
+        <v>0.02839116431120424</v>
+      </c>
+      <c r="H86">
+        <v>-0.07136961896590129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02989447843911582</v>
+        <v>-0.005905591703439596</v>
       </c>
       <c r="C87">
-        <v>0.02268096468877749</v>
+        <v>0.04115624382314847</v>
       </c>
       <c r="D87">
-        <v>-0.03843524535443088</v>
+        <v>-0.01118448303064655</v>
       </c>
       <c r="E87">
-        <v>-0.008854408817157728</v>
+        <v>0.000714646683011828</v>
       </c>
       <c r="F87">
-        <v>-0.1020806348072448</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0280248101694394</v>
+      </c>
+      <c r="G87">
+        <v>0.06763384483383454</v>
+      </c>
+      <c r="H87">
+        <v>-0.07784368925930214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0208708706727714</v>
+        <v>-0.04390155086309818</v>
       </c>
       <c r="C88">
-        <v>0.0004071610124245506</v>
+        <v>0.01884792667429799</v>
       </c>
       <c r="D88">
-        <v>-0.0001067876545941632</v>
+        <v>-0.01755674778326388</v>
       </c>
       <c r="E88">
-        <v>-0.01901043521174045</v>
+        <v>-0.02156492077471105</v>
       </c>
       <c r="F88">
-        <v>0.02096693148085273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01903939034030732</v>
+      </c>
+      <c r="G88">
+        <v>1.899014726244424e-05</v>
+      </c>
+      <c r="H88">
+        <v>-0.003272232736077187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0939478715090187</v>
+        <v>-0.3176008404489955</v>
       </c>
       <c r="C89">
-        <v>0.06218475543088596</v>
+        <v>-0.2905725602600606</v>
       </c>
       <c r="D89">
-        <v>0.342378263496996</v>
+        <v>0.04680946353876182</v>
       </c>
       <c r="E89">
-        <v>0.05806776483932444</v>
+        <v>0.009714948354637385</v>
       </c>
       <c r="F89">
-        <v>-0.102459120297146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01115107866730934</v>
+      </c>
+      <c r="G89">
+        <v>-0.01728558499483936</v>
+      </c>
+      <c r="H89">
+        <v>0.010236226567842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.0820966689805047</v>
+        <v>-0.2630858866098635</v>
       </c>
       <c r="C90">
-        <v>0.0274515115007669</v>
+        <v>-0.2696609964779241</v>
       </c>
       <c r="D90">
-        <v>0.3578559593888899</v>
+        <v>0.04329177538001139</v>
       </c>
       <c r="E90">
-        <v>0.08997259396686622</v>
+        <v>0.001064693694403397</v>
       </c>
       <c r="F90">
-        <v>-0.05186979424450378</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05774267821556903</v>
+      </c>
+      <c r="G90">
+        <v>-0.01358540179621435</v>
+      </c>
+      <c r="H90">
+        <v>0.05911469957784855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.229968979909762</v>
+        <v>-0.197628973823734</v>
       </c>
       <c r="C91">
-        <v>0.2168736574703169</v>
+        <v>0.2080398490576348</v>
       </c>
       <c r="D91">
-        <v>-0.0223692558805891</v>
+        <v>0.02900661643367933</v>
       </c>
       <c r="E91">
-        <v>-0.1212528669705676</v>
+        <v>0.001256799153951308</v>
       </c>
       <c r="F91">
-        <v>0.2385799457470635</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08651849586179358</v>
+      </c>
+      <c r="G91">
+        <v>-0.07054798511008625</v>
+      </c>
+      <c r="H91">
+        <v>0.1802670376052236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1467518509687148</v>
+        <v>-0.2807091863324249</v>
       </c>
       <c r="C92">
-        <v>0.09309071497364582</v>
+        <v>-0.1731064381112584</v>
       </c>
       <c r="D92">
-        <v>0.4292427574884883</v>
+        <v>0.08083028455597596</v>
       </c>
       <c r="E92">
-        <v>-0.008861915597928883</v>
+        <v>-0.006555207462112852</v>
       </c>
       <c r="F92">
-        <v>0.0612008606028287</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.0414078986801619</v>
+      </c>
+      <c r="G92">
+        <v>0.02517346148775181</v>
+      </c>
+      <c r="H92">
+        <v>0.1455240504863628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07901961152458392</v>
+        <v>-0.2978711105089348</v>
       </c>
       <c r="C93">
-        <v>0.07336013562065608</v>
+        <v>-0.2655034995796373</v>
       </c>
       <c r="D93">
-        <v>0.4160396088700133</v>
+        <v>0.05310026202471233</v>
       </c>
       <c r="E93">
-        <v>0.1282673524952453</v>
+        <v>0.0342563497960874</v>
       </c>
       <c r="F93">
-        <v>-0.0622356162932303</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.04561401251119192</v>
+      </c>
+      <c r="G93">
+        <v>-0.02434649867610679</v>
+      </c>
+      <c r="H93">
+        <v>-0.006181012586847895</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2277105415628189</v>
+        <v>-0.2445308509252662</v>
       </c>
       <c r="C94">
-        <v>0.2250111589157633</v>
+        <v>0.2361743228454848</v>
       </c>
       <c r="D94">
-        <v>-0.02101921252764356</v>
+        <v>0.01916249342274297</v>
       </c>
       <c r="E94">
-        <v>-0.2298815526882694</v>
+        <v>0.006932274298492111</v>
       </c>
       <c r="F94">
-        <v>0.1929883458869211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2103299984258426</v>
+      </c>
+      <c r="G94">
+        <v>-0.1024992108174096</v>
+      </c>
+      <c r="H94">
+        <v>0.4088552342857609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-8.109080805130657e-05</v>
+        <v>-0.02918554146212653</v>
       </c>
       <c r="C95">
-        <v>0.08598710492969043</v>
+        <v>0.1006176254688096</v>
       </c>
       <c r="D95">
-        <v>-0.03640511245106141</v>
+        <v>0.003289061068024209</v>
       </c>
       <c r="E95">
-        <v>-0.02679346503380461</v>
+        <v>0.0819096657650201</v>
       </c>
       <c r="F95">
-        <v>-0.01707054511922899</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.0274776288874102</v>
+      </c>
+      <c r="G95">
+        <v>0.03482640043146416</v>
+      </c>
+      <c r="H95">
+        <v>-0.02629567280081024</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1164840867487492</v>
+        <v>-0.1866731308635445</v>
       </c>
       <c r="C98">
-        <v>0.1325860674169416</v>
+        <v>0.07161701392948334</v>
       </c>
       <c r="D98">
-        <v>0.0146247794891431</v>
+        <v>0.02999102824143055</v>
       </c>
       <c r="E98">
-        <v>0.06015345318139928</v>
+        <v>0.06935581518375207</v>
       </c>
       <c r="F98">
-        <v>-0.1768315798815352</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.009214169802785617</v>
+      </c>
+      <c r="G98">
+        <v>0.06068499207932249</v>
+      </c>
+      <c r="H98">
+        <v>-0.3289967159265146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0117468762936731</v>
+        <v>-0.008022856817023444</v>
       </c>
       <c r="C101">
-        <v>-0.0004068385979672759</v>
+        <v>0.01942863654734946</v>
       </c>
       <c r="D101">
-        <v>-0.05872788626472358</v>
+        <v>-0.006905299668738021</v>
       </c>
       <c r="E101">
-        <v>-0.03042005689581111</v>
+        <v>-0.0005186735103779544</v>
       </c>
       <c r="F101">
-        <v>-0.1686916157671378</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03570309564189666</v>
+      </c>
+      <c r="G101">
+        <v>0.08771848196691133</v>
+      </c>
+      <c r="H101">
+        <v>0.005735796490209717</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09286707388234415</v>
+        <v>-0.09400444562442119</v>
       </c>
       <c r="C102">
-        <v>0.07324009277423625</v>
+        <v>0.1071754149679542</v>
       </c>
       <c r="D102">
-        <v>-0.01120162481460581</v>
+        <v>0.001027027360915066</v>
       </c>
       <c r="E102">
-        <v>-0.07547817590664216</v>
+        <v>-0.007821523500143618</v>
       </c>
       <c r="F102">
-        <v>0.09483188797156823</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.0584263759542967</v>
+      </c>
+      <c r="G102">
+        <v>-0.0320968507067697</v>
+      </c>
+      <c r="H102">
+        <v>0.06587474783275195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04394272544832892</v>
+        <v>-0.01163242353427172</v>
       </c>
       <c r="C103">
-        <v>0.02028261628498935</v>
+        <v>0.01871156641000286</v>
       </c>
       <c r="D103">
-        <v>-0.01977707735775368</v>
+        <v>0.0001579306802307114</v>
       </c>
       <c r="E103">
-        <v>-0.04193183855972916</v>
+        <v>-0.01334297500481209</v>
       </c>
       <c r="F103">
-        <v>0.01018132020703178</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.001353218600736323</v>
+      </c>
+      <c r="G103">
+        <v>0.007177928970708011</v>
+      </c>
+      <c r="H103">
+        <v>0.016866718503721</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1121866813102728</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.09601953020847569</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9746032429290087</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02538300889257789</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1083706502300294</v>
+      </c>
+      <c r="G104">
+        <v>0.05561516773665612</v>
+      </c>
+      <c r="H104">
+        <v>0.06022589665639821</v>
       </c>
     </row>
   </sheetData>
